--- a/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200319.xlsx
+++ b/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/tianjin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BBA503-3F67-3D4F-B394-F415F1B3362B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F33000-6EE0-B440-9EDD-3AC95CF92823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10809,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -11806,6 +11806,9 @@
       <c r="G17" s="23" t="s">
         <v>3299</v>
       </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
       <c r="M17" s="13">
         <v>1</v>
       </c>
@@ -11858,6 +11861,9 @@
       </c>
       <c r="H18" s="13" t="s">
         <v>3300</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
       </c>
       <c r="M18" s="13">
         <v>1</v>

--- a/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200319.xlsx
+++ b/data/unchecked/manual_collect/china/tianjin/tianjinCaseStatistics_20200319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/tianjin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F33000-6EE0-B440-9EDD-3AC95CF92823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2BCDB-670E-FA4F-A1FC-820CAB3FAACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10809,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -11913,6 +11913,9 @@
         <v>5</v>
       </c>
       <c r="G19" s="20"/>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
       <c r="M19" s="13">
         <v>137</v>
       </c>
